--- a/results/mp/tinybert/toy-spam/confidence/168/stop-words-0.5/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/168/stop-words-0.5/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="88">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,157 +46,154 @@
     <t>disappointing</t>
   </si>
   <si>
+    <t>disappointed</t>
+  </si>
+  <si>
+    <t>poor</t>
+  </si>
+  <si>
+    <t>however</t>
+  </si>
+  <si>
+    <t>broke</t>
+  </si>
+  <si>
+    <t>junk</t>
+  </si>
+  <si>
     <t>waste</t>
   </si>
   <si>
-    <t>poor</t>
-  </si>
-  <si>
-    <t>junk</t>
-  </si>
-  <si>
-    <t>broke</t>
-  </si>
-  <si>
-    <t>however</t>
-  </si>
-  <si>
-    <t>returned</t>
-  </si>
-  <si>
-    <t>disappointed</t>
-  </si>
-  <si>
-    <t>instead</t>
-  </si>
-  <si>
     <t>smaller</t>
   </si>
   <si>
     <t>guess</t>
   </si>
   <si>
+    <t>small</t>
+  </si>
+  <si>
+    <t>apart</t>
+  </si>
+  <si>
     <t>okay</t>
   </si>
   <si>
-    <t>small</t>
-  </si>
-  <si>
     <t>broken</t>
   </si>
   <si>
     <t>paint</t>
   </si>
   <si>
-    <t>di</t>
-  </si>
-  <si>
     <t>plastic</t>
   </si>
   <si>
-    <t>apart</t>
+    <t>difficult</t>
+  </si>
+  <si>
+    <t>cheap</t>
   </si>
   <si>
     <t>ok</t>
   </si>
   <si>
-    <t>cheap</t>
-  </si>
-  <si>
     <t>thought</t>
   </si>
   <si>
-    <t>difficult</t>
+    <t>bit</t>
   </si>
   <si>
     <t>though</t>
   </si>
   <si>
-    <t>picture</t>
-  </si>
-  <si>
     <t>nothing</t>
   </si>
   <si>
+    <t>back</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t>hard</t>
+  </si>
+  <si>
+    <t>would</t>
+  </si>
+  <si>
+    <t>money</t>
+  </si>
+  <si>
     <t>size</t>
   </si>
   <si>
-    <t>work</t>
-  </si>
-  <si>
-    <t>money</t>
-  </si>
-  <si>
-    <t>hard</t>
-  </si>
-  <si>
-    <t>back</t>
-  </si>
-  <si>
-    <t>would</t>
+    <t>item</t>
+  </si>
+  <si>
+    <t>could</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>look</t>
+  </si>
+  <si>
+    <t>used</t>
+  </si>
+  <si>
+    <t>need</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
-    <t>used</t>
+    <t>price</t>
   </si>
   <si>
     <t>pieces</t>
   </si>
   <si>
-    <t>item</t>
-  </si>
-  <si>
-    <t>product</t>
-  </si>
-  <si>
-    <t>could</t>
-  </si>
-  <si>
-    <t>price</t>
+    <t>put</t>
+  </si>
+  <si>
+    <t>use</t>
+  </si>
+  <si>
+    <t>box</t>
+  </si>
+  <si>
+    <t>3</t>
   </si>
   <si>
     <t>expected</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
-    <t>way</t>
-  </si>
-  <si>
-    <t>use</t>
+    <t>even</t>
   </si>
   <si>
     <t>buy</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>box</t>
-  </si>
-  <si>
-    <t>two</t>
-  </si>
-  <si>
-    <t>even</t>
+    <t>made</t>
+  </si>
+  <si>
+    <t>little</t>
+  </si>
+  <si>
+    <t>much</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
-    <t>little</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>much</t>
+    <t>get</t>
   </si>
   <si>
     <t>one</t>
@@ -205,10 +202,7 @@
     <t>toy</t>
   </si>
   <si>
-    <t>get</t>
-  </si>
-  <si>
-    <t>really</t>
+    <t>time</t>
   </si>
   <si>
     <t>bought</t>
@@ -238,10 +232,13 @@
     <t>great</t>
   </si>
   <si>
+    <t>loves</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
-    <t>loves</t>
+    <t>best</t>
   </si>
   <si>
     <t>loved</t>
@@ -250,34 +247,34 @@
     <t>perfect</t>
   </si>
   <si>
-    <t>best</t>
+    <t>learn</t>
   </si>
   <si>
     <t>friends</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>fun</t>
+  </si>
+  <si>
+    <t>enjoy</t>
+  </si>
+  <si>
     <t>christmas</t>
   </si>
   <si>
-    <t>enjoy</t>
-  </si>
-  <si>
-    <t>fun</t>
-  </si>
-  <si>
     <t>family</t>
   </si>
   <si>
     <t>game</t>
   </si>
   <si>
-    <t>easy</t>
+    <t>playing</t>
   </si>
   <si>
     <t>play</t>
-  </si>
-  <si>
-    <t>good</t>
   </si>
   <si>
     <t>positive</t>
@@ -638,7 +635,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q60"/>
+  <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -646,10 +643,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -707,13 +704,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9347826086956522</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D3">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -725,19 +722,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K3">
-        <v>0.8461538461538461</v>
+        <v>0.8307692307692308</v>
       </c>
       <c r="L3">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M3">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -749,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -778,16 +775,16 @@
         <v>8</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K4">
-        <v>0.8035714285714286</v>
+        <v>0.7321428571428571</v>
       </c>
       <c r="L4">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="M4">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -799,7 +796,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -807,13 +804,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7905405405405406</v>
+        <v>0.7956989247311828</v>
       </c>
       <c r="C5">
-        <v>117</v>
+        <v>148</v>
       </c>
       <c r="D5">
-        <v>117</v>
+        <v>148</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -825,19 +822,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K5">
-        <v>0.6774193548387096</v>
+        <v>0.6989247311827957</v>
       </c>
       <c r="L5">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M5">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -849,7 +846,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -878,16 +875,16 @@
         <v>15</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K6">
-        <v>0.65625</v>
+        <v>0.671875</v>
       </c>
       <c r="L6">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M6">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -899,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -907,13 +904,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7818181818181819</v>
+        <v>0.78125</v>
       </c>
       <c r="C7">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D7">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -925,19 +922,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K7">
-        <v>0.6415094339622641</v>
+        <v>0.6037735849056604</v>
       </c>
       <c r="L7">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M7">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -949,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -957,13 +954,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7815533980582524</v>
+        <v>0.7718446601941747</v>
       </c>
       <c r="C8">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D8">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -975,10 +972,10 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K8">
         <v>0.4782608695652174</v>
@@ -1007,13 +1004,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.78125</v>
+        <v>0.7454545454545455</v>
       </c>
       <c r="C9">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="D9">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1028,16 +1025,16 @@
         <v>14</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K9">
-        <v>0.4459016393442623</v>
+        <v>0.4544708777686629</v>
       </c>
       <c r="L9">
-        <v>544</v>
+        <v>554</v>
       </c>
       <c r="M9">
-        <v>544</v>
+        <v>555</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1046,10 +1043,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q9">
-        <v>676</v>
+        <v>665</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1057,13 +1054,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7631578947368421</v>
+        <v>0.7364864864864865</v>
       </c>
       <c r="C10">
-        <v>29</v>
+        <v>109</v>
       </c>
       <c r="D10">
-        <v>29</v>
+        <v>109</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1075,19 +1072,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K10">
-        <v>0.4209770114942529</v>
+        <v>0.4024896265560166</v>
       </c>
       <c r="L10">
-        <v>293</v>
+        <v>194</v>
       </c>
       <c r="M10">
-        <v>294</v>
+        <v>194</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1096,10 +1093,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>403</v>
+        <v>288</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1107,13 +1104,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7526881720430108</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="C11">
-        <v>140</v>
+        <v>77</v>
       </c>
       <c r="D11">
-        <v>140</v>
+        <v>77</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1125,19 +1122,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K11">
-        <v>0.3838174273858921</v>
+        <v>0.4017216642754663</v>
       </c>
       <c r="L11">
-        <v>185</v>
+        <v>280</v>
       </c>
       <c r="M11">
-        <v>185</v>
+        <v>280</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1149,7 +1146,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>297</v>
+        <v>417</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1157,13 +1154,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.625</v>
+        <v>0.5925925925925926</v>
       </c>
       <c r="C12">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D12">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1175,19 +1172,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K12">
-        <v>0.3027522935779817</v>
+        <v>0.3166666666666667</v>
       </c>
       <c r="L12">
-        <v>99</v>
+        <v>38</v>
       </c>
       <c r="M12">
-        <v>99</v>
+        <v>38</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1199,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>228</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1207,13 +1204,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6218487394957983</v>
+        <v>0.5710144927536231</v>
       </c>
       <c r="C13">
-        <v>74</v>
+        <v>197</v>
       </c>
       <c r="D13">
-        <v>74</v>
+        <v>197</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1225,19 +1222,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>45</v>
+        <v>148</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K13">
-        <v>0.3012048192771085</v>
+        <v>0.2813455657492355</v>
       </c>
       <c r="L13">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="M13">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1249,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>116</v>
+        <v>235</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1257,13 +1254,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6111111111111112</v>
+        <v>0.5578947368421052</v>
       </c>
       <c r="C14">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="D14">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1275,19 +1272,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K14">
-        <v>0.3</v>
+        <v>0.2771084337349398</v>
       </c>
       <c r="L14">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="M14">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1299,7 +1296,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>84</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1307,13 +1304,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5925925925925926</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="C15">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D15">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1325,31 +1322,31 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K15">
-        <v>0.2872340425531915</v>
+        <v>0.2265625</v>
       </c>
       <c r="L15">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="M15">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="N15">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O15">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>134</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1357,13 +1354,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5855072463768116</v>
+        <v>0.5421686746987951</v>
       </c>
       <c r="C16">
-        <v>202</v>
+        <v>45</v>
       </c>
       <c r="D16">
-        <v>202</v>
+        <v>45</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1375,19 +1372,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>143</v>
+        <v>38</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K16">
-        <v>0.2008032128514056</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="L16">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="M16">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1399,7 +1396,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>199</v>
+        <v>147</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1407,13 +1404,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5542168674698795</v>
+        <v>0.492063492063492</v>
       </c>
       <c r="C17">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="D17">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1425,31 +1422,31 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K17">
-        <v>0.1621621621621622</v>
+        <v>0.2097902097902098</v>
       </c>
       <c r="L17">
         <v>30</v>
       </c>
       <c r="M17">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N17">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O17">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>155</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1457,13 +1454,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5238095238095238</v>
+        <v>0.4881889763779528</v>
       </c>
       <c r="C18">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="D18">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1475,31 +1472,31 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K18">
-        <v>0.1526315789473684</v>
+        <v>0.1660808435852373</v>
       </c>
       <c r="L18">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="M18">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="N18">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="O18">
-        <v>0.01000000000000001</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P18" t="b">
         <v>1</v>
       </c>
       <c r="Q18">
-        <v>966</v>
+        <v>949</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1507,13 +1504,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.515625</v>
+        <v>0.4831460674157304</v>
       </c>
       <c r="C19">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="D19">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1525,31 +1522,31 @@
         <v>0</v>
       </c>
       <c r="H19">
+        <v>46</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K19">
+        <v>0.1621621621621622</v>
+      </c>
+      <c r="L19">
+        <v>30</v>
+      </c>
+      <c r="M19">
         <v>31</v>
       </c>
-      <c r="J19" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="K19">
-        <v>0.1002785515320334</v>
-      </c>
-      <c r="L19">
-        <v>36</v>
-      </c>
-      <c r="M19">
-        <v>36</v>
-      </c>
       <c r="N19">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q19">
-        <v>323</v>
+        <v>155</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1557,13 +1554,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.5118110236220472</v>
+        <v>0.4502369668246445</v>
       </c>
       <c r="C20">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="D20">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1575,31 +1572,31 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>62</v>
+        <v>116</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K20">
-        <v>0.09817945383615084</v>
+        <v>0.1619433198380567</v>
       </c>
       <c r="L20">
-        <v>151</v>
+        <v>40</v>
       </c>
       <c r="M20">
-        <v>154</v>
+        <v>42</v>
       </c>
       <c r="N20">
-        <v>0.98</v>
+        <v>0.95</v>
       </c>
       <c r="O20">
-        <v>0.02000000000000002</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P20" t="b">
         <v>1</v>
       </c>
       <c r="Q20">
-        <v>1387</v>
+        <v>207</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1607,13 +1604,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.4736842105263158</v>
+        <v>0.4453125</v>
       </c>
       <c r="C21">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="D21">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1625,31 +1622,31 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K21">
-        <v>0.08042895442359249</v>
+        <v>0.1197771587743733</v>
       </c>
       <c r="L21">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="M21">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="N21">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O21">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>343</v>
+        <v>316</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1657,13 +1654,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.453125</v>
+        <v>0.4257425742574257</v>
       </c>
       <c r="C22">
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="D22">
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1675,31 +1672,31 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>70</v>
+        <v>116</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K22">
-        <v>0.05</v>
+        <v>0.09811565951916829</v>
       </c>
       <c r="L22">
-        <v>37</v>
+        <v>151</v>
       </c>
       <c r="M22">
-        <v>49</v>
+        <v>153</v>
       </c>
       <c r="N22">
-        <v>0.76</v>
+        <v>0.99</v>
       </c>
       <c r="O22">
-        <v>0.24</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P22" t="b">
         <v>1</v>
       </c>
       <c r="Q22">
-        <v>703</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1707,13 +1704,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.4218009478672986</v>
+        <v>0.3877551020408163</v>
       </c>
       <c r="C23">
-        <v>89</v>
+        <v>38</v>
       </c>
       <c r="D23">
-        <v>89</v>
+        <v>38</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1725,31 +1722,31 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>122</v>
+        <v>60</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K23">
-        <v>0.04610951008645533</v>
+        <v>0.09259259259259259</v>
       </c>
       <c r="L23">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M23">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="N23">
-        <v>0.74</v>
+        <v>1</v>
       </c>
       <c r="O23">
-        <v>0.26</v>
+        <v>0</v>
       </c>
       <c r="P23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>662</v>
+        <v>294</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1757,13 +1754,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.4207920792079208</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C24">
-        <v>85</v>
+        <v>39</v>
       </c>
       <c r="D24">
-        <v>85</v>
+        <v>39</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1775,7 +1772,31 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>117</v>
+        <v>78</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K24">
+        <v>0.06425702811244979</v>
+      </c>
+      <c r="L24">
+        <v>48</v>
+      </c>
+      <c r="M24">
+        <v>53</v>
+      </c>
+      <c r="N24">
+        <v>0.91</v>
+      </c>
+      <c r="O24">
+        <v>0.08999999999999997</v>
+      </c>
+      <c r="P24" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q24">
+        <v>699</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1783,13 +1804,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.3932584269662922</v>
+        <v>0.3186813186813187</v>
       </c>
       <c r="C25">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D25">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1801,7 +1822,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>54</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1809,25 +1830,25 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.3760683760683761</v>
+        <v>0.316546762589928</v>
       </c>
       <c r="C26">
         <v>44</v>
       </c>
       <c r="D26">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26">
-        <v>73</v>
+        <v>95</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1835,13 +1856,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.3402061855670103</v>
+        <v>0.310126582278481</v>
       </c>
       <c r="C27">
-        <v>33</v>
+        <v>98</v>
       </c>
       <c r="D27">
-        <v>33</v>
+        <v>98</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1853,7 +1874,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>64</v>
+        <v>218</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1861,13 +1882,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.3186813186813187</v>
+        <v>0.305</v>
       </c>
       <c r="C28">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="D28">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1879,7 +1900,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>62</v>
+        <v>139</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1887,25 +1908,25 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.3144329896907216</v>
+        <v>0.2942050520059435</v>
       </c>
       <c r="C29">
-        <v>61</v>
+        <v>198</v>
       </c>
       <c r="D29">
-        <v>61</v>
+        <v>199</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29">
-        <v>133</v>
+        <v>475</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1913,13 +1934,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.3132911392405063</v>
+        <v>0.2911392405063291</v>
       </c>
       <c r="C30">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="D30">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1931,7 +1952,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>217</v>
+        <v>224</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -1939,13 +1960,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.3069620253164557</v>
+        <v>0.2835051546391752</v>
       </c>
       <c r="C31">
-        <v>97</v>
+        <v>55</v>
       </c>
       <c r="D31">
-        <v>97</v>
+        <v>55</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1957,7 +1978,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>219</v>
+        <v>139</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -1965,13 +1986,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.3</v>
+        <v>0.2753623188405797</v>
       </c>
       <c r="C32">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="D32">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1983,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>140</v>
+        <v>200</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1991,13 +2012,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.2785714285714286</v>
+        <v>0.267515923566879</v>
       </c>
       <c r="C33">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D33">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2009,7 +2030,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>101</v>
+        <v>115</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2017,25 +2038,25 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.2776119402985074</v>
+        <v>0.2672413793103448</v>
       </c>
       <c r="C34">
-        <v>186</v>
+        <v>31</v>
       </c>
       <c r="D34">
-        <v>190</v>
+        <v>33</v>
       </c>
       <c r="E34">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="F34">
-        <v>0.98</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G34" t="b">
         <v>1</v>
       </c>
       <c r="H34">
-        <v>484</v>
+        <v>85</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2043,25 +2064,25 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.2523364485981308</v>
+        <v>0.2362030905077263</v>
       </c>
       <c r="C35">
-        <v>54</v>
+        <v>107</v>
       </c>
       <c r="D35">
-        <v>54</v>
+        <v>108</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H35">
-        <v>160</v>
+        <v>346</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2069,13 +2090,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.2457142857142857</v>
+        <v>0.234375</v>
       </c>
       <c r="C36">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="D36">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2087,7 +2108,7 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>132</v>
+        <v>98</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2095,13 +2116,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.2404371584699453</v>
+        <v>0.2342857142857143</v>
       </c>
       <c r="C37">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D37">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2113,7 +2134,7 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2121,25 +2142,25 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.2355072463768116</v>
+        <v>0.2248062015503876</v>
       </c>
       <c r="C38">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="D38">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F38">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H38">
-        <v>211</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2147,25 +2168,25 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.2273730684326711</v>
+        <v>0.2196261682242991</v>
       </c>
       <c r="C39">
-        <v>103</v>
+        <v>47</v>
       </c>
       <c r="D39">
-        <v>104</v>
+        <v>47</v>
       </c>
       <c r="E39">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F39">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39">
-        <v>350</v>
+        <v>167</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2173,25 +2194,25 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.2243589743589744</v>
+        <v>0.2126436781609195</v>
       </c>
       <c r="C40">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="D40">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="E40">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F40">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H40">
-        <v>121</v>
+        <v>274</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2199,25 +2220,25 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.2161383285302594</v>
+        <v>0.1967213114754098</v>
       </c>
       <c r="C41">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="D41">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="E41">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F41">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H41">
-        <v>272</v>
+        <v>147</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2225,13 +2246,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.1770833333333333</v>
+        <v>0.1948051948051948</v>
       </c>
       <c r="C42">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D42">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2243,7 +2264,7 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>158</v>
+        <v>124</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2251,25 +2272,25 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.172972972972973</v>
+        <v>0.1835616438356164</v>
       </c>
       <c r="C43">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="D43">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="E43">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="F43">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="G43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H43">
-        <v>153</v>
+        <v>298</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2277,25 +2298,25 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.1729323308270677</v>
+        <v>0.1780104712041885</v>
       </c>
       <c r="C44">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="D44">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="E44">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F44">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H44">
-        <v>220</v>
+        <v>157</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2303,25 +2324,25 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.1705882352941177</v>
+        <v>0.1619433198380567</v>
       </c>
       <c r="C45">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="D45">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="E45">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="F45">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="G45" t="b">
         <v>1</v>
       </c>
       <c r="H45">
-        <v>141</v>
+        <v>207</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2329,25 +2350,25 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.162534435261708</v>
+        <v>0.1510416666666667</v>
       </c>
       <c r="C46">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="D46">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="E46">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F46">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H46">
-        <v>304</v>
+        <v>163</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2355,25 +2376,25 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.1605633802816901</v>
+        <v>0.1503759398496241</v>
       </c>
       <c r="C47">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="D47">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="E47">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F47">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H47">
-        <v>298</v>
+        <v>226</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2381,25 +2402,25 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.1557377049180328</v>
+        <v>0.1464285714285714</v>
       </c>
       <c r="C48">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D48">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E48">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F48">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="G48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H48">
-        <v>206</v>
+        <v>239</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2407,25 +2428,25 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.1526315789473684</v>
+        <v>0.1299435028248588</v>
       </c>
       <c r="C49">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="D49">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="E49">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="F49">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="G49" t="b">
         <v>1</v>
       </c>
       <c r="H49">
-        <v>161</v>
+        <v>308</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2433,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.1487179487179487</v>
+        <v>0.126984126984127</v>
       </c>
       <c r="C50">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="D50">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="E50">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="F50">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
       <c r="G50" t="b">
         <v>1</v>
       </c>
       <c r="H50">
-        <v>166</v>
+        <v>275</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2459,25 +2480,25 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.1469534050179211</v>
+        <v>0.1202672605790646</v>
       </c>
       <c r="C51">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="D51">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="E51">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F51">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H51">
-        <v>238</v>
+        <v>395</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2485,25 +2506,25 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.1312292358803987</v>
+        <v>0.1144859813084112</v>
       </c>
       <c r="C52">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="D52">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="E52">
-        <v>0.07000000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="F52">
-        <v>0.9299999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="G52" t="b">
         <v>1</v>
       </c>
       <c r="H52">
-        <v>523</v>
+        <v>379</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2511,25 +2532,25 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1309255079006772</v>
+        <v>0.1092715231788079</v>
       </c>
       <c r="C53">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="D53">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="E53">
-        <v>0.09</v>
+        <v>0.06</v>
       </c>
       <c r="F53">
-        <v>0.91</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G53" t="b">
         <v>1</v>
       </c>
       <c r="H53">
-        <v>385</v>
+        <v>538</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2537,25 +2558,25 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.1301587301587302</v>
+        <v>0.09929078014184398</v>
       </c>
       <c r="C54">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D54">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E54">
-        <v>0.05</v>
+        <v>0.12</v>
       </c>
       <c r="F54">
-        <v>0.95</v>
+        <v>0.88</v>
       </c>
       <c r="G54" t="b">
         <v>1</v>
       </c>
       <c r="H54">
-        <v>274</v>
+        <v>381</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2563,13 +2584,13 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.1194379391100703</v>
+        <v>0.09438775510204081</v>
       </c>
       <c r="C55">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="D55">
-        <v>58</v>
+        <v>84</v>
       </c>
       <c r="E55">
         <v>0.12</v>
@@ -2581,7 +2602,7 @@
         <v>1</v>
       </c>
       <c r="H55">
-        <v>376</v>
+        <v>710</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2589,25 +2610,25 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.09898477157360407</v>
+        <v>0.07870370370370371</v>
       </c>
       <c r="C56">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="D56">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="E56">
-        <v>0.07000000000000001</v>
+        <v>0.12</v>
       </c>
       <c r="F56">
-        <v>0.9299999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="G56" t="b">
         <v>1</v>
       </c>
       <c r="H56">
-        <v>710</v>
+        <v>597</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2615,25 +2636,25 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.09062980030721966</v>
+        <v>0.06880733944954129</v>
       </c>
       <c r="C57">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="D57">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="E57">
-        <v>0.06</v>
+        <v>0.27</v>
       </c>
       <c r="F57">
-        <v>0.9399999999999999</v>
+        <v>0.73</v>
       </c>
       <c r="G57" t="b">
         <v>1</v>
       </c>
       <c r="H57">
-        <v>592</v>
+        <v>406</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2641,76 +2662,24 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.08665105386416862</v>
+        <v>0.05988023952095808</v>
       </c>
       <c r="C58">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="D58">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E58">
-        <v>0.05</v>
+        <v>0.09</v>
       </c>
       <c r="F58">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="G58" t="b">
         <v>1</v>
       </c>
       <c r="H58">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
-      <c r="A59" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B59">
-        <v>0.06209850107066381</v>
-      </c>
-      <c r="C59">
-        <v>29</v>
-      </c>
-      <c r="D59">
-        <v>31</v>
-      </c>
-      <c r="E59">
-        <v>0.06</v>
-      </c>
-      <c r="F59">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="G59" t="b">
-        <v>1</v>
-      </c>
-      <c r="H59">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
-      <c r="A60" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B60">
-        <v>0.05988023952095808</v>
-      </c>
-      <c r="C60">
-        <v>30</v>
-      </c>
-      <c r="D60">
-        <v>33</v>
-      </c>
-      <c r="E60">
-        <v>0.09</v>
-      </c>
-      <c r="F60">
-        <v>0.91</v>
-      </c>
-      <c r="G60" t="b">
-        <v>1</v>
-      </c>
-      <c r="H60">
         <v>471</v>
       </c>
     </row>
